--- a/Followup supplier cat.xlsx
+++ b/Followup supplier cat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allst\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilbe\Dropbox\FAMILY\SALES\EDMILBE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CE5D94-4B68-4CE2-87F5-4F72E42E66F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787B1421-1ABA-401F-982B-9320EB5077C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE285061-26F7-4F88-BA98-15DAC40684DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE285061-26F7-4F88-BA98-15DAC40684DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,6 +160,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -171,7 +182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,10 +481,10 @@
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
@@ -562,8 +573,10 @@
         <v>45194</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="2">
+        <v>815</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -630,7 +643,9 @@
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>45195</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
